--- a/caseManage/upload/教师端.xlsx
+++ b/caseManage/upload/教师端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="28000" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例模版" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>用例名称</t>
   </si>
@@ -102,6 +102,9 @@
     <t>最后更新时间</t>
   </si>
   <si>
+    <t>创建者</t>
+  </si>
+  <si>
     <t>用户名</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
   </si>
   <si>
     <t>哈哈</t>
+  </si>
+  <si>
+    <t>李</t>
   </si>
 </sst>
 </file>
@@ -136,19 +142,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -158,6 +173,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -171,9 +194,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,37 +242,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -219,46 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,20 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,181 +307,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,15 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,17 +539,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,155 +572,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -752,6 +758,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1100,12 +1109,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1119,7 +1128,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:9">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,34 +1156,40 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:2">
